--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF54C4E-C2A4-4C04-99F4-083889EE2C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD0ACF7-6AA3-4903-A1BA-E028E755B193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,14 +58,6 @@
   </si>
   <si>
     <t>high</t>
-  </si>
-  <si>
-    <t>Максимальный срок нахождения товара
-в корзине</t>
-  </si>
-  <si>
-    <t>Запрос на количество товаров, 
-превыщающее их наличие в магазине</t>
   </si>
   <si>
     <t>medium</t>
@@ -171,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">         Equal to avaliable items in the shop</t>
+  </si>
+  <si>
+    <t>The maximum period of stay of an item in the cart</t>
+  </si>
+  <si>
+    <t>Request more items than are available in the store</t>
   </si>
 </sst>
 </file>
@@ -705,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -729,7 +727,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -773,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -784,10 +782,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -795,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="26"/>
     </row>
@@ -804,10 +802,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -815,10 +813,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -826,19 +824,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -846,10 +844,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -857,21 +855,21 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -879,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -890,10 +888,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -901,10 +899,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -912,10 +910,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
